--- a/Ruta migratoria.xlsx
+++ b/Ruta migratoria.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIGRA CHAMOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0491FD9-7CEB-4D87-A8A7-98B447EC33A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>País</t>
   </si>
@@ -25,154 +34,356 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>~6,800 km</t>
-  </si>
-  <si>
-    <t>Chile/Bolivia → Norte argentino (Salta/Jujuy)</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
-    <t>~3,200 km</t>
-  </si>
-  <si>
-    <t>Perú/Chile → Desaguadero o Villazón (frontera Bolivia)</t>
-  </si>
-  <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>~400 km (Boa Vista) / ~1,400 km (Manaos)</t>
-  </si>
-  <si>
-    <t>Santa Elena de Uairén (VE) → BR-174 (Brasil)</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>~5,600 km</t>
-  </si>
-  <si>
-    <t>Perú → Arica (frontera Chile)</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>~1,200 km (Cúcuta) / ~1,800 km (Bogotá)</t>
-  </si>
-  <si>
-    <t>San Antonio del Táchira (frontera colombo-venezolana)</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>~2,300 km</t>
-  </si>
-  <si>
-    <t>Colombia → Rumichaca (frontera Ecuador)</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>~1,100 km</t>
-  </si>
-  <si>
-    <t>Tumeremo (VE) → Lethem (Guyana)</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>~4,500 km</t>
-  </si>
-  <si>
-    <t>Brasil/Argentina → Ciudad del Este (frontera Paraguay)</t>
-  </si>
-  <si>
     <t>Perú</t>
   </si>
   <si>
-    <t>~3,500 km</t>
-  </si>
-  <si>
-    <t>Ecuador → Tumbes (frontera Perú)</t>
-  </si>
-  <si>
-    <t>Surinam</t>
-  </si>
-  <si>
-    <t>~1,500 km</t>
-  </si>
-  <si>
-    <t>Guyana → South Drain (frontera Surinam)</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>~7,200 km</t>
-  </si>
-  <si>
-    <t>Argentina → Fray Bentos (frontera Uruguay)</t>
+    <t xml:space="preserve">Colombia </t>
+  </si>
+  <si>
+    <t>EEUU</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana </t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>1,200 km (Cúcuta)</t>
+  </si>
+  <si>
+    <t>3,500 km</t>
+  </si>
+  <si>
+    <t>400 km (Boa Vista)</t>
+  </si>
+  <si>
+    <t>3,800 km (Miami)</t>
+  </si>
+  <si>
+    <t>5,600 km</t>
+  </si>
+  <si>
+    <t>6,800 km (Madrid)</t>
+  </si>
+  <si>
+    <t>2,300 km</t>
+  </si>
+  <si>
+    <t>6,800 km</t>
+  </si>
+  <si>
+    <t>1,100 km</t>
+  </si>
+  <si>
+    <t>3,500 km (Ciudad de México)</t>
+  </si>
+  <si>
+    <t>8,200 km (Roma)</t>
+  </si>
+  <si>
+    <t>1,800 km</t>
+  </si>
+  <si>
+    <t>7,200 km</t>
+  </si>
+  <si>
+    <t>700 km</t>
+  </si>
+  <si>
+    <t>2,000 km</t>
+  </si>
+  <si>
+    <t>6,500 km (Lisboa)</t>
+  </si>
+  <si>
+    <t>5,000 km (Toronto)</t>
+  </si>
+  <si>
+    <t>3,200 km</t>
+  </si>
+  <si>
+    <t>300 km</t>
+  </si>
+  <si>
+    <t>250 km</t>
+  </si>
+  <si>
+    <t>4,500 km</t>
+  </si>
+  <si>
+    <t>2,500 km</t>
+  </si>
+  <si>
+    <t>2,200 km</t>
+  </si>
+  <si>
+    <t>~7,500 km (París)</t>
+  </si>
+  <si>
+    <t>Terrestre: San Antonio del Táchira (frontera) → Bogotá/Cali. Irregular: Trochas en Arauca.</t>
+  </si>
+  <si>
+    <t>Terrestre: Ecuador → Tumbes (frontera Perú). Aéreo: Lima (visas temporales en 2018).</t>
+  </si>
+  <si>
+    <t>Terrestre: Santa Elena de Uairén → BR-174 (Roraima). Fluvial: Amazonas (Manaos).</t>
+  </si>
+  <si>
+    <t>Aéreo/Aéreo+Terrestre: Vuelos a México → Cruce irregular por Texas/Arizona (Ruta Darién Gap).</t>
+  </si>
+  <si>
+    <t>Terrestre: Perú → Arica/Tacna (frontera Chile). Aéreo: Santiago (visas humanitarias).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos directos (arraigo familiar). Irregular: Península Ibérica vía Italia/Francia.</t>
+  </si>
+  <si>
+    <t>Terrestre: Colombia → Rumichaca (frontera). Aéreo: Quito/Guayaquil (visas temporales 2018).</t>
+  </si>
+  <si>
+    <t>Terrestre: Chile/Bolivia → Salta/Jujuy. Aéreo: Buenos Aires (visas Mercosur).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos directos (turismo → permanencia irregular). Marítima: Puerto Santo Domingo.</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos + cruce terrestre a EE.UU. Terrestre: Guatemala → Tapachula (sur).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos con escalas (visas Schengen). Irregular: Llegada a Grecia/Turquía vía Balcanes.</t>
+  </si>
+  <si>
+    <t>Terrestre: Colombia → Darién (ruta peligrosa). Aéreo: Tocumen (visas humanitarias).</t>
+  </si>
+  <si>
+    <t>Aéreo: Montevideo (visas Mercosur). Terrestre: Argentina → Fray Bentos (frontera).</t>
+  </si>
+  <si>
+    <t>Marítima: Puerto España (botes irregulares desde Güiria, Venezuela).</t>
+  </si>
+  <si>
+    <t>Terrestre: Nicaragua → Peñas Blancas (frontera). Aéreo: San José (visas temporales).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos directos (comunidad venezolana establecida).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos desde EE.UU./México (asilo político). Programas: Reasentamiento.</t>
+  </si>
+  <si>
+    <t>Terrestre: Tumeremo (VE) → Lethem (Guyana). Marítima: Essequibo (botes informales).</t>
+  </si>
+  <si>
+    <t>Terrestre: Perú/Chile → Desaguadero/Villazón (frontera).</t>
+  </si>
+  <si>
+    <t>Marítima: Lanchas irregulares desde Falcón (viaje peligroso).</t>
+  </si>
+  <si>
+    <t>Marítima: Botes desde Paraguaná (ruta corta pero vigilada).</t>
+  </si>
+  <si>
+    <t>Aéreo: Vuelos con escalas (visas Schengen). Irregular: Desde España/Italia.</t>
+  </si>
+  <si>
+    <t>Terrestre: Brasil/Argentina → Ciudad del Este (frontera). Aéreo: Asunción.</t>
+  </si>
+  <si>
+    <t>Terrestre: Guatemala → frontera La Hachadura. Aéreo: San Salvador (escalas).</t>
+  </si>
+  <si>
+    <t>Terrestre: Honduras → Guasaule (frontera). Aéreo: Managua (poco común).</t>
+  </si>
+  <si>
+    <t>Terrestre: Guatemala → Corinto (frontera). Aéreo: Tegucigalpa.</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>2,800 km</t>
+  </si>
+  <si>
+    <t>Terrestre: México → Tecún Umán (frontera sur) / Aéreo: Ciudad de Guatemala (escalas desde Panamá/Colombia).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E5E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -362,24 +573,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.13"/>
-    <col customWidth="1" min="3" max="3" width="42.0"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,128 +607,306 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C28" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>